--- a/syllabus_derecho.xlsx
+++ b/syllabus_derecho.xlsx
@@ -523,17 +523,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -555,7 +555,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>OBLIGATORIO</t>
+          <t>ELECTIVO</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>profesor@ulasalle.edu.pe</t>
+          <t>maramayov@ulasalle.edu.pe</t>
         </is>
       </c>
     </row>
@@ -591,20 +591,20 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ESPECIALIDAD</t>
+          <t>GENERAL</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ELECTIVO</t>
+          <t>OBLIGATORIO</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>profesor@ulasalle.edu.pe</t>
+          <t>maramayov@ulasalle.edu.pe</t>
         </is>
       </c>
     </row>
@@ -651,24 +651,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GENERAL</t>
+          <t>ESPECIALIDAD</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>OBLIGATORIO</t>
+          <t>ELECTIVO</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>profesor@ulasalle.edu.pe</t>
+          <t>maramayov@ulasalle.edu.pe</t>
         </is>
       </c>
     </row>
@@ -715,24 +715,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GENERAL</t>
+          <t>INVESTIGACIÓN</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ELECTIVO</t>
+          <t>OBLIGATORIO</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>profesor@ulasalle.edu.pe</t>
+          <t>maramayov@ulasalle.edu.pe</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>57</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>69</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>INVESTIGACIÓN</t>
+          <t>ESPECIALIDAD</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ELECTIVO</t>
+          <t>OBLIGATORIO</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>profesor@ulasalle.edu.pe</t>
+          <t>maramayov@ulasalle.edu.pe</t>
         </is>
       </c>
     </row>
